--- a/usaco_cpp.xlsx
+++ b/usaco_cpp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9235783F-BC57-4E40-8F64-B20E93E36D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604C773-8674-4125-95F3-8E413818E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="454">
   <si>
     <t>难度</t>
   </si>
@@ -5089,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57B94A1-58A7-412D-8E84-9DD439E2E9A9}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5258,228 +5258,68 @@
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>361</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>221</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -6188,80 +6028,66 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C059EDDF-B422-4870-B47B-EF58B246A790}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{5F3970C3-C723-4844-B508-66D15669DBB6}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{3236A720-E00E-446E-9ACF-372AA2456573}"/>
-    <hyperlink ref="B15" r:id="rId4" xr:uid="{514203F0-3E4C-4744-B068-D6BDEAA33F4D}"/>
-    <hyperlink ref="B16" r:id="rId5" xr:uid="{CB00460E-76F1-4E1E-AE18-3C8BD1AA9255}"/>
-    <hyperlink ref="B19" r:id="rId6" xr:uid="{72794D97-6914-48EB-A91A-E5E3E3B0B0C0}"/>
-    <hyperlink ref="B21" r:id="rId7" xr:uid="{4DE87CBE-2AB1-4E86-9EC2-4D31F3BDB793}"/>
-    <hyperlink ref="B22" r:id="rId8" xr:uid="{FA43AEED-AF29-4ABE-A7D9-A0C9661A5CD6}"/>
-    <hyperlink ref="B23" r:id="rId9" xr:uid="{2DF8A5C7-10FE-419F-AE5A-05228A7C1D51}"/>
-    <hyperlink ref="B24" r:id="rId10" xr:uid="{8490D9E0-0434-4AF6-BA53-928E612D9667}"/>
-    <hyperlink ref="B25" r:id="rId11" xr:uid="{ED8F506C-2FDF-483B-B469-0B9BE06A2FB7}"/>
-    <hyperlink ref="B26" r:id="rId12" xr:uid="{EF8A420B-3D92-40C0-98EC-B8279BF94178}"/>
-    <hyperlink ref="B27" r:id="rId13" xr:uid="{55241D91-D572-4818-BA46-82FB0B08DF81}"/>
-    <hyperlink ref="B28" r:id="rId14" xr:uid="{28DB1916-EE8D-4F7D-B2E0-9E599B19A65C}"/>
-    <hyperlink ref="B29" r:id="rId15" xr:uid="{55598EAB-BD6F-42D5-9003-F54E4098EA4F}"/>
-    <hyperlink ref="B30" r:id="rId16" xr:uid="{846982B6-0DA2-4DDF-AC25-ECD188C6C1ED}"/>
-    <hyperlink ref="B31" r:id="rId17" xr:uid="{21837501-E9FC-4269-9914-F45E41F7B488}"/>
-    <hyperlink ref="B32" r:id="rId18" xr:uid="{186245C8-C655-4996-9BB5-7FD7F9AF546E}"/>
-    <hyperlink ref="B33" r:id="rId19" xr:uid="{DEC0C82D-7533-4A16-A870-9F601FA51EDC}"/>
-    <hyperlink ref="B34" r:id="rId20" xr:uid="{CF388404-34D1-48D3-9B84-7AB65EE2D2CD}"/>
-    <hyperlink ref="B35" r:id="rId21" xr:uid="{F53C5C22-CBC4-48E5-B8D3-0B72F8E5947A}"/>
-    <hyperlink ref="B36" r:id="rId22" xr:uid="{864CB884-D209-4112-9416-A473BAEE0A3E}"/>
-    <hyperlink ref="B37" r:id="rId23" xr:uid="{6B4D4320-8A63-4F5D-88F2-2026BA7E1651}"/>
-    <hyperlink ref="B38" r:id="rId24" xr:uid="{2ED6D8AE-4D6A-47BA-94DE-841DD9A818E7}"/>
-    <hyperlink ref="B39" r:id="rId25" xr:uid="{093BD55C-3637-49AF-9B7E-F1B85CC0CA63}"/>
-    <hyperlink ref="B40" r:id="rId26" xr:uid="{9AF80BB6-1CC0-49B7-92D7-86CA48F39843}"/>
-    <hyperlink ref="B41" r:id="rId27" xr:uid="{5D14AF82-DD35-4BCB-8242-C39B7D3F853F}"/>
-    <hyperlink ref="B42" r:id="rId28" xr:uid="{72048C85-0A78-4DE5-80BD-5F817C922ADB}"/>
-    <hyperlink ref="B43" r:id="rId29" xr:uid="{7B158C8B-8288-486D-9F86-93C8417C0C6C}"/>
-    <hyperlink ref="B44" r:id="rId30" xr:uid="{DDB399C0-CA45-4FF3-A412-EC9BB2EF63C1}"/>
-    <hyperlink ref="B45" r:id="rId31" xr:uid="{74FF45A2-1EA1-437B-8A71-F33B4090D8BE}"/>
-    <hyperlink ref="B46" r:id="rId32" xr:uid="{9A583CA0-EE78-4EF3-B9E7-4C4CA7BC0F07}"/>
-    <hyperlink ref="B47" r:id="rId33" xr:uid="{53451671-C126-4F06-A029-5802A1AED40D}"/>
-    <hyperlink ref="B48" r:id="rId34" xr:uid="{54616B06-449E-4D31-8855-2790BB471E83}"/>
-    <hyperlink ref="B50" r:id="rId35" xr:uid="{F631AEB8-8BED-4DDE-954B-1B76FDDB0CC5}"/>
-    <hyperlink ref="B51" r:id="rId36" xr:uid="{97B47761-B991-4B44-9FDA-ED75A69D050C}"/>
-    <hyperlink ref="B52" r:id="rId37" xr:uid="{EF0F2850-E8FE-443C-B434-DC6F2ADCF022}"/>
-    <hyperlink ref="B53" r:id="rId38" xr:uid="{06765E1B-AAD6-47DF-9BEC-8247250C96E5}"/>
-    <hyperlink ref="B54" r:id="rId39" xr:uid="{EF1A9276-C650-4C78-ADFD-CF8C66553659}"/>
-    <hyperlink ref="B55" r:id="rId40" xr:uid="{C66B0042-8228-4F01-BAC7-B8A55C8535D9}"/>
-    <hyperlink ref="B56" r:id="rId41" xr:uid="{743E3F5B-FEED-489B-A8F2-14C64E21A635}"/>
-    <hyperlink ref="B57" r:id="rId42" xr:uid="{B403EFB6-403D-4370-B669-2F997A819C64}"/>
-    <hyperlink ref="B58" r:id="rId43" xr:uid="{F4912074-6257-47A9-A069-BE134294191D}"/>
-    <hyperlink ref="B59" r:id="rId44" xr:uid="{FDC575ED-5695-478C-AA7A-07AB9EE01574}"/>
-    <hyperlink ref="B60" r:id="rId45" xr:uid="{3E038562-74F5-4A41-8A5E-696146EF869C}"/>
-    <hyperlink ref="B61" r:id="rId46" xr:uid="{4E9425E5-0379-4510-B4AB-A38C15EDADB8}"/>
-    <hyperlink ref="B62" r:id="rId47" xr:uid="{456796CE-2EAE-42DE-83D2-7D775E24689E}"/>
-    <hyperlink ref="B63" r:id="rId48" xr:uid="{A1EE15CB-6854-4C10-BBFB-F5D5147C821C}"/>
-    <hyperlink ref="A64" r:id="rId49" display="https://usaco.org/index.php?page=viewproblem2&amp;cpid=1254" xr:uid="{6B60EC1B-DC5B-4E81-904B-C03C24328680}"/>
-    <hyperlink ref="B64" r:id="rId50" xr:uid="{19C56CA3-48B5-4B35-885B-391F92BEC17E}"/>
-    <hyperlink ref="B65" r:id="rId51" xr:uid="{8C8E51F6-9247-46E8-B79A-DE82422DC3C0}"/>
-    <hyperlink ref="B66" r:id="rId52" xr:uid="{62E1FBB4-7C47-44B8-86E8-4B8BC0B9465C}"/>
-    <hyperlink ref="B67" r:id="rId53" xr:uid="{09A1FCC3-5DE2-478D-A2FE-9D92726D5BCD}"/>
-    <hyperlink ref="B68" r:id="rId54" xr:uid="{6C4689F1-70C7-41C0-B2BA-F4CD0DE6E709}"/>
-    <hyperlink ref="B70" r:id="rId55" xr:uid="{E285070F-FCEC-4ED6-9489-5BE7AB374022}"/>
-    <hyperlink ref="B71" r:id="rId56" xr:uid="{0A8D0527-9630-44D4-9100-1494C9129F02}"/>
-    <hyperlink ref="B72" r:id="rId57" xr:uid="{BF0947D4-5785-497E-9916-D9AA4119B5C4}"/>
-    <hyperlink ref="B73" r:id="rId58" xr:uid="{1877D20D-F7AC-4C71-BC4C-F6C68AE1E0B8}"/>
-    <hyperlink ref="B74" r:id="rId59" xr:uid="{AB239371-2AD5-488B-9879-110712346C2F}"/>
-    <hyperlink ref="B75" r:id="rId60" xr:uid="{ABEE3A70-521E-4AB3-A375-A30AB8824C68}"/>
-    <hyperlink ref="B76" r:id="rId61" xr:uid="{DCEB8E52-DB09-45A9-A1CA-D75A26A8FF22}"/>
-    <hyperlink ref="B78" r:id="rId62" xr:uid="{630FFB19-3418-4A35-8961-51997920B1FA}"/>
-    <hyperlink ref="B77" r:id="rId63" xr:uid="{49344E88-6F93-4241-B261-32A8BCB522F7}"/>
-    <hyperlink ref="B17" r:id="rId64" xr:uid="{4D0F7802-9614-4EFD-8142-E97E995E6A5D}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{004FD6A5-C8CE-47DD-929A-C3A67B205F3B}"/>
-    <hyperlink ref="B3" r:id="rId66" xr:uid="{BFEC23BC-187A-415A-BD1E-11F5652E2794}"/>
-    <hyperlink ref="B4" r:id="rId67" xr:uid="{218FE657-24FC-492A-B11F-9AB1A591A6E4}"/>
-    <hyperlink ref="B5" r:id="rId68" xr:uid="{2B7EF975-BAED-40CE-B933-6D456580B3A3}"/>
-    <hyperlink ref="A8" r:id="rId69" display="https://usaco.org/index.php?page=viewproblem2&amp;cpid=694" xr:uid="{9869D06C-9866-4682-B780-9A2DB74F759F}"/>
-    <hyperlink ref="B6" r:id="rId70" xr:uid="{9040AE75-534E-4A6D-B4CF-16272EDA0A46}"/>
-    <hyperlink ref="B7" r:id="rId71" xr:uid="{5D5BDF44-AB94-4056-84B1-1BD406AE07F7}"/>
-    <hyperlink ref="B9" r:id="rId72" xr:uid="{54BD0C4F-355F-4E7F-8FB2-EF2F1D35BE6D}"/>
-    <hyperlink ref="B10" r:id="rId73" xr:uid="{390C71A5-B9B3-41D2-91CD-F72C557A7A82}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{55598EAB-BD6F-42D5-9003-F54E4098EA4F}"/>
+    <hyperlink ref="B30" r:id="rId3" xr:uid="{846982B6-0DA2-4DDF-AC25-ECD188C6C1ED}"/>
+    <hyperlink ref="B31" r:id="rId4" xr:uid="{21837501-E9FC-4269-9914-F45E41F7B488}"/>
+    <hyperlink ref="B32" r:id="rId5" xr:uid="{186245C8-C655-4996-9BB5-7FD7F9AF546E}"/>
+    <hyperlink ref="B33" r:id="rId6" xr:uid="{DEC0C82D-7533-4A16-A870-9F601FA51EDC}"/>
+    <hyperlink ref="B34" r:id="rId7" xr:uid="{CF388404-34D1-48D3-9B84-7AB65EE2D2CD}"/>
+    <hyperlink ref="B35" r:id="rId8" xr:uid="{F53C5C22-CBC4-48E5-B8D3-0B72F8E5947A}"/>
+    <hyperlink ref="B36" r:id="rId9" xr:uid="{864CB884-D209-4112-9416-A473BAEE0A3E}"/>
+    <hyperlink ref="B37" r:id="rId10" xr:uid="{6B4D4320-8A63-4F5D-88F2-2026BA7E1651}"/>
+    <hyperlink ref="B38" r:id="rId11" xr:uid="{2ED6D8AE-4D6A-47BA-94DE-841DD9A818E7}"/>
+    <hyperlink ref="B39" r:id="rId12" xr:uid="{093BD55C-3637-49AF-9B7E-F1B85CC0CA63}"/>
+    <hyperlink ref="B40" r:id="rId13" xr:uid="{9AF80BB6-1CC0-49B7-92D7-86CA48F39843}"/>
+    <hyperlink ref="B41" r:id="rId14" xr:uid="{5D14AF82-DD35-4BCB-8242-C39B7D3F853F}"/>
+    <hyperlink ref="B42" r:id="rId15" xr:uid="{72048C85-0A78-4DE5-80BD-5F817C922ADB}"/>
+    <hyperlink ref="B43" r:id="rId16" xr:uid="{7B158C8B-8288-486D-9F86-93C8417C0C6C}"/>
+    <hyperlink ref="B44" r:id="rId17" xr:uid="{DDB399C0-CA45-4FF3-A412-EC9BB2EF63C1}"/>
+    <hyperlink ref="B45" r:id="rId18" xr:uid="{74FF45A2-1EA1-437B-8A71-F33B4090D8BE}"/>
+    <hyperlink ref="B46" r:id="rId19" xr:uid="{9A583CA0-EE78-4EF3-B9E7-4C4CA7BC0F07}"/>
+    <hyperlink ref="B47" r:id="rId20" xr:uid="{53451671-C126-4F06-A029-5802A1AED40D}"/>
+    <hyperlink ref="B48" r:id="rId21" xr:uid="{54616B06-449E-4D31-8855-2790BB471E83}"/>
+    <hyperlink ref="B50" r:id="rId22" xr:uid="{F631AEB8-8BED-4DDE-954B-1B76FDDB0CC5}"/>
+    <hyperlink ref="B51" r:id="rId23" xr:uid="{97B47761-B991-4B44-9FDA-ED75A69D050C}"/>
+    <hyperlink ref="B52" r:id="rId24" xr:uid="{EF0F2850-E8FE-443C-B434-DC6F2ADCF022}"/>
+    <hyperlink ref="B53" r:id="rId25" xr:uid="{06765E1B-AAD6-47DF-9BEC-8247250C96E5}"/>
+    <hyperlink ref="B54" r:id="rId26" xr:uid="{EF1A9276-C650-4C78-ADFD-CF8C66553659}"/>
+    <hyperlink ref="B55" r:id="rId27" xr:uid="{C66B0042-8228-4F01-BAC7-B8A55C8535D9}"/>
+    <hyperlink ref="B56" r:id="rId28" xr:uid="{743E3F5B-FEED-489B-A8F2-14C64E21A635}"/>
+    <hyperlink ref="B57" r:id="rId29" xr:uid="{B403EFB6-403D-4370-B669-2F997A819C64}"/>
+    <hyperlink ref="B58" r:id="rId30" xr:uid="{F4912074-6257-47A9-A069-BE134294191D}"/>
+    <hyperlink ref="B59" r:id="rId31" xr:uid="{FDC575ED-5695-478C-AA7A-07AB9EE01574}"/>
+    <hyperlink ref="B60" r:id="rId32" xr:uid="{3E038562-74F5-4A41-8A5E-696146EF869C}"/>
+    <hyperlink ref="B61" r:id="rId33" xr:uid="{4E9425E5-0379-4510-B4AB-A38C15EDADB8}"/>
+    <hyperlink ref="B62" r:id="rId34" xr:uid="{456796CE-2EAE-42DE-83D2-7D775E24689E}"/>
+    <hyperlink ref="B63" r:id="rId35" xr:uid="{A1EE15CB-6854-4C10-BBFB-F5D5147C821C}"/>
+    <hyperlink ref="A64" r:id="rId36" display="https://usaco.org/index.php?page=viewproblem2&amp;cpid=1254" xr:uid="{6B60EC1B-DC5B-4E81-904B-C03C24328680}"/>
+    <hyperlink ref="B64" r:id="rId37" xr:uid="{19C56CA3-48B5-4B35-885B-391F92BEC17E}"/>
+    <hyperlink ref="B65" r:id="rId38" xr:uid="{8C8E51F6-9247-46E8-B79A-DE82422DC3C0}"/>
+    <hyperlink ref="B66" r:id="rId39" xr:uid="{62E1FBB4-7C47-44B8-86E8-4B8BC0B9465C}"/>
+    <hyperlink ref="B67" r:id="rId40" xr:uid="{09A1FCC3-5DE2-478D-A2FE-9D92726D5BCD}"/>
+    <hyperlink ref="B68" r:id="rId41" xr:uid="{6C4689F1-70C7-41C0-B2BA-F4CD0DE6E709}"/>
+    <hyperlink ref="B70" r:id="rId42" xr:uid="{E285070F-FCEC-4ED6-9489-5BE7AB374022}"/>
+    <hyperlink ref="B71" r:id="rId43" xr:uid="{0A8D0527-9630-44D4-9100-1494C9129F02}"/>
+    <hyperlink ref="B72" r:id="rId44" xr:uid="{BF0947D4-5785-497E-9916-D9AA4119B5C4}"/>
+    <hyperlink ref="B73" r:id="rId45" xr:uid="{1877D20D-F7AC-4C71-BC4C-F6C68AE1E0B8}"/>
+    <hyperlink ref="B74" r:id="rId46" xr:uid="{AB239371-2AD5-488B-9879-110712346C2F}"/>
+    <hyperlink ref="B75" r:id="rId47" xr:uid="{ABEE3A70-521E-4AB3-A375-A30AB8824C68}"/>
+    <hyperlink ref="B76" r:id="rId48" xr:uid="{DCEB8E52-DB09-45A9-A1CA-D75A26A8FF22}"/>
+    <hyperlink ref="B78" r:id="rId49" xr:uid="{630FFB19-3418-4A35-8961-51997920B1FA}"/>
+    <hyperlink ref="B77" r:id="rId50" xr:uid="{49344E88-6F93-4241-B261-32A8BCB522F7}"/>
+    <hyperlink ref="B69" r:id="rId51" xr:uid="{004FD6A5-C8CE-47DD-929A-C3A67B205F3B}"/>
+    <hyperlink ref="B3" r:id="rId52" xr:uid="{BFEC23BC-187A-415A-BD1E-11F5652E2794}"/>
+    <hyperlink ref="B4" r:id="rId53" xr:uid="{218FE657-24FC-492A-B11F-9AB1A591A6E4}"/>
+    <hyperlink ref="B5" r:id="rId54" xr:uid="{2B7EF975-BAED-40CE-B933-6D456580B3A3}"/>
+    <hyperlink ref="A8" r:id="rId55" display="https://usaco.org/index.php?page=viewproblem2&amp;cpid=694" xr:uid="{9869D06C-9866-4682-B780-9A2DB74F759F}"/>
+    <hyperlink ref="B6" r:id="rId56" xr:uid="{9040AE75-534E-4A6D-B4CF-16272EDA0A46}"/>
+    <hyperlink ref="B7" r:id="rId57" xr:uid="{5D5BDF44-AB94-4056-84B1-1BD406AE07F7}"/>
+    <hyperlink ref="B9" r:id="rId58" xr:uid="{54BD0C4F-355F-4E7F-8FB2-EF2F1D35BE6D}"/>
+    <hyperlink ref="B10" r:id="rId59" xr:uid="{390C71A5-B9B3-41D2-91CD-F72C557A7A82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>